--- a/brasil-clubes-rank-2024/tabelas/Sulamericana Rank.xlsx
+++ b/brasil-clubes-rank-2024/tabelas/Sulamericana Rank.xlsx
@@ -543,7 +543,7 @@
         <v>15</v>
       </c>
       <c r="N2" t="n">
-        <v>6220.72</v>
+        <v>282.76</v>
       </c>
     </row>
     <row r="3">
@@ -589,7 +589,7 @@
         <v>9</v>
       </c>
       <c r="N3" t="n">
-        <v>4982.12</v>
+        <v>226.46</v>
       </c>
     </row>
     <row r="4">
@@ -635,7 +635,7 @@
         <v>13</v>
       </c>
       <c r="N4" t="n">
-        <v>3820.08</v>
+        <v>173.64</v>
       </c>
     </row>
     <row r="5">
@@ -681,7 +681,7 @@
         <v>11</v>
       </c>
       <c r="N5" t="n">
-        <v>2946.46</v>
+        <v>133.93</v>
       </c>
     </row>
     <row r="6">
@@ -727,7 +727,7 @@
         <v>8</v>
       </c>
       <c r="N6" t="n">
-        <v>2800.82</v>
+        <v>127.31</v>
       </c>
     </row>
     <row r="7">
@@ -773,7 +773,7 @@
         <v>10</v>
       </c>
       <c r="N7" t="n">
-        <v>2755.94</v>
+        <v>125.27</v>
       </c>
     </row>
     <row r="8">
@@ -819,7 +819,7 @@
         <v>4</v>
       </c>
       <c r="N8" t="n">
-        <v>2398.88</v>
+        <v>109.04</v>
       </c>
     </row>
     <row r="9">
@@ -865,7 +865,7 @@
         <v>12</v>
       </c>
       <c r="N9" t="n">
-        <v>1606.88</v>
+        <v>73.04000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -911,7 +911,7 @@
         <v>11</v>
       </c>
       <c r="N10" t="n">
-        <v>1404.7</v>
+        <v>63.85</v>
       </c>
     </row>
     <row r="11">
@@ -957,7 +957,7 @@
         <v>5</v>
       </c>
       <c r="N11" t="n">
-        <v>1075.36</v>
+        <v>48.88</v>
       </c>
     </row>
     <row r="12">
@@ -1003,7 +1003,7 @@
         <v>9</v>
       </c>
       <c r="N12" t="n">
-        <v>1046.1</v>
+        <v>47.55</v>
       </c>
     </row>
     <row r="13">
@@ -1049,7 +1049,7 @@
         <v>6</v>
       </c>
       <c r="N13" t="n">
-        <v>892.98</v>
+        <v>40.59</v>
       </c>
     </row>
     <row r="14">
@@ -1095,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="N14" t="n">
-        <v>858.88</v>
+        <v>39.04</v>
       </c>
     </row>
     <row r="15">
@@ -1141,7 +1141,7 @@
         <v>7</v>
       </c>
       <c r="N15" t="n">
-        <v>832.92</v>
+        <v>37.86</v>
       </c>
     </row>
     <row r="16">
@@ -1187,7 +1187,7 @@
         <v>3</v>
       </c>
       <c r="N16" t="n">
-        <v>813.12</v>
+        <v>36.96</v>
       </c>
     </row>
     <row r="17">
@@ -1233,7 +1233,7 @@
         <v>9</v>
       </c>
       <c r="N17" t="n">
-        <v>780.78</v>
+        <v>35.49</v>
       </c>
     </row>
     <row r="18">
@@ -1279,7 +1279,7 @@
         <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>733.26</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="19">
@@ -1325,7 +1325,7 @@
         <v>6</v>
       </c>
       <c r="N19" t="n">
-        <v>523.16</v>
+        <v>23.78</v>
       </c>
     </row>
     <row r="20">
@@ -1371,7 +1371,7 @@
         <v>8</v>
       </c>
       <c r="N20" t="n">
-        <v>433.62</v>
+        <v>19.71</v>
       </c>
     </row>
     <row r="21">
@@ -1417,7 +1417,7 @@
         <v>7</v>
       </c>
       <c r="N21" t="n">
-        <v>361.9</v>
+        <v>16.45</v>
       </c>
     </row>
     <row r="22">
@@ -1463,7 +1463,7 @@
         <v>3</v>
       </c>
       <c r="N22" t="n">
-        <v>343.64</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="23">
@@ -1509,7 +1509,7 @@
         <v>7</v>
       </c>
       <c r="N23" t="n">
-        <v>288.64</v>
+        <v>13.12</v>
       </c>
     </row>
     <row r="24">
@@ -1555,7 +1555,7 @@
         <v>5</v>
       </c>
       <c r="N24" t="n">
-        <v>282.04</v>
+        <v>12.82</v>
       </c>
     </row>
     <row r="25">
@@ -1601,7 +1601,7 @@
         <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>244.42</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="26">
@@ -1647,7 +1647,7 @@
         <v>4</v>
       </c>
       <c r="N26" t="n">
-        <v>228.14</v>
+        <v>10.37</v>
       </c>
     </row>
     <row r="27">
@@ -1693,7 +1693,7 @@
         <v>5</v>
       </c>
       <c r="N27" t="n">
-        <v>210.32</v>
+        <v>9.56</v>
       </c>
     </row>
     <row r="28">
@@ -1739,7 +1739,7 @@
         <v>3</v>
       </c>
       <c r="N28" t="n">
-        <v>130.46</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="29">
@@ -1785,7 +1785,7 @@
         <v>1</v>
       </c>
       <c r="N29" t="n">
-        <v>122.32</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="30">
@@ -1831,7 +1831,7 @@
         <v>1</v>
       </c>
       <c r="N30" t="n">
-        <v>122.32</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="31">
@@ -1877,7 +1877,7 @@
         <v>2</v>
       </c>
       <c r="N31" t="n">
-        <v>79.86</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="32">
@@ -1923,7 +1923,7 @@
         <v>1</v>
       </c>
       <c r="N32" t="n">
-        <v>73.26000000000001</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="33">
@@ -1969,7 +1969,7 @@
         <v>1</v>
       </c>
       <c r="N33" t="n">
-        <v>73.26000000000001</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="34">
@@ -2015,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="N34" t="n">
-        <v>73.26000000000001</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="35">
@@ -2061,7 +2061,7 @@
         <v>1</v>
       </c>
       <c r="N35" t="n">
-        <v>73.26000000000001</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="36">
@@ -2107,7 +2107,7 @@
         <v>1</v>
       </c>
       <c r="N36" t="n">
-        <v>73.26000000000001</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="37">
@@ -2153,7 +2153,7 @@
         <v>3</v>
       </c>
       <c r="N37" t="n">
-        <v>61.16</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="38">
@@ -2199,7 +2199,7 @@
         <v>4</v>
       </c>
       <c r="N38" t="n">
-        <v>21.34</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="39">
@@ -2245,7 +2245,7 @@
         <v>2</v>
       </c>
       <c r="N39" t="n">
-        <v>13.2</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="40">
@@ -2291,7 +2291,7 @@
         <v>2</v>
       </c>
       <c r="N40" t="n">
-        <v>9.9</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="41">
@@ -2337,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="N41" t="n">
-        <v>6.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="42">
@@ -2383,7 +2383,7 @@
         <v>1</v>
       </c>
       <c r="N42" t="n">
-        <v>6.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="43">
@@ -2429,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="N43" t="n">
-        <v>6.6</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>

--- a/brasil-clubes-rank-2024/tabelas/Sulamericana Rank.xlsx
+++ b/brasil-clubes-rank-2024/tabelas/Sulamericana Rank.xlsx
@@ -552,23 +552,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Athletico Paranaense</t>
+          <t>Atlético Mineiro</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -580,16 +580,16 @@
         <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N3" t="n">
-        <v>226.46</v>
+        <v>273.64</v>
       </c>
     </row>
     <row r="4">
@@ -598,23 +598,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Atlético Mineiro</t>
+          <t>Athletico Paranaense</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -626,16 +626,16 @@
         <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N4" t="n">
-        <v>173.64</v>
+        <v>226.46</v>
       </c>
     </row>
     <row r="5">
@@ -844,7 +844,7 @@
         <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N9" t="n">
-        <v>73.04000000000001</v>
+        <v>76.37</v>
       </c>
     </row>
     <row r="10">
@@ -936,7 +936,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -954,10 +954,10 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N11" t="n">
-        <v>48.88</v>
+        <v>52.21</v>
       </c>
     </row>
     <row r="12">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Vitória</t>
+          <t>Grêmio</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1393,10 +1393,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1405,19 +1405,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N21" t="n">
-        <v>16.45</v>
+        <v>18.68</v>
       </c>
     </row>
     <row r="22">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Atlético Goianiense</t>
+          <t>Vitória</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1436,22 +1436,22 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N22" t="n">
-        <v>15.62</v>
+        <v>16.45</v>
       </c>
     </row>
     <row r="23">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Grêmio</t>
+          <t>Atlético Goianiense</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1482,34 +1482,34 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N23" t="n">
-        <v>13.12</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="24">
